--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293798.9476157909</v>
+        <v>291360.4745160431</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>282.4605077549103</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>285.9908289452609</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>212.6652167733024</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.58151650834343</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.9446243547922</v>
       </c>
       <c r="D5" t="n">
-        <v>22.05816311387115</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247945</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S7" t="n">
-        <v>60.49353368196056</v>
+        <v>77.84724700848723</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>138.0402488768754</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.52676208877685</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179322</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.5629652581869</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892427719</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.7871326503951</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.5907017407151</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456765</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389038</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>109.7234882887326</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>35.41770597126713</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.02686156550261</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>107.4021082756243</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6324680438218387</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.200456328343</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C2" t="n">
-        <v>1053.237939387931</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>694.9722407811807</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,7 +4358,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
         <v>2866.09759726723</v>
@@ -4367,13 +4367,13 @@
         <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X2" t="n">
         <v>1808.800296392465</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392465</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251695</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796274</v>
+        <v>1878.169188758596</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392158</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>530.5269660969217</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881543</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985468</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.58875505237</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999837</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387324</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332769</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601619</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.02130239278</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064754</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218345</v>
@@ -4647,49 +4647,49 @@
         <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.76045543161</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266133</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501179</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.570363233848</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="C7" t="n">
-        <v>629.570363233848</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.338775876041</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4741,34 +4741,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846022</v>
       </c>
       <c r="S7" t="n">
-        <v>1866.189968611765</v>
+        <v>1758.830508009166</v>
       </c>
       <c r="T7" t="n">
-        <v>1644.423353181292</v>
+        <v>1537.063892578692</v>
       </c>
       <c r="U7" t="n">
-        <v>1355.320486306935</v>
+        <v>1247.961025704335</v>
       </c>
       <c r="V7" t="n">
-        <v>1100.635998101048</v>
+        <v>993.2765374984486</v>
       </c>
       <c r="W7" t="n">
-        <v>811.2188280640877</v>
+        <v>993.2765374984486</v>
       </c>
       <c r="X7" t="n">
-        <v>811.2188280640877</v>
+        <v>765.2869866004313</v>
       </c>
       <c r="Y7" t="n">
-        <v>811.2188280640877</v>
+        <v>544.4944074569012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796274</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C8" t="n">
-        <v>782.3358610545008</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
         <v>417.1246616985469</v>
@@ -4802,25 +4802,25 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.58875505237</v>
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,37 +4896,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348718</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069649</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946292</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E10" t="n">
-        <v>359.6192507122361</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218345</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.60866391532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.60866391532</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709433</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.507005672472</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5174547744546</v>
+        <v>585.3344285704425</v>
       </c>
       <c r="Y10" t="n">
-        <v>826.5851666348718</v>
+        <v>364.5418494269123</v>
       </c>
     </row>
     <row r="11">
@@ -5021,34 +5021,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121598</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121598</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121598</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270397</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,16 +5294,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,34 +5531,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>363.7369613277338</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199798</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993911</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.13902995695</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058933</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,25 +5978,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.599751250049</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.182581213088</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315071</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684978</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6048385560544</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718132</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395908</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-5.375577615087962e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>57.26675306205209</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>364.4402605046811</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.0031368437513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219467</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187378</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>86.99395161137971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253588</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.003342051665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>142.4141550350954</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0033420516641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>40.23897475306291</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.62417772602025</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>251.5051752800062</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>980798.7861884857</v>
+        <v>980798.7861884855</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1059659.627002217</v>
+        <v>1059659.627002218</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1059659.627002218</v>
+        <v>1059659.627002217</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1059659.627002218</v>
+        <v>1059659.627002217</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019035</v>
+        <v>335917.9865019032</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
         <v>363215.9698605026</v>
@@ -26326,7 +26326,7 @@
         <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605027</v>
@@ -26335,25 +26335,25 @@
         <v>363215.9698605025</v>
       </c>
       <c r="J2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="M2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="N2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="O2" t="n">
         <v>363215.9698605029</v>
       </c>
-      <c r="K2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605029</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.969860503</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363215.9698605028</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.21140770817874e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47799.18331047964</v>
+        <v>47799.18331047957</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314467</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26436,28 +26436,28 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
+        <v>11167.03225179355</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="N4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179347</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1148559.883097562</v>
+        <v>-1148746.276486102</v>
       </c>
       <c r="C6" t="n">
-        <v>171180.7888543899</v>
+        <v>171180.7888543892</v>
       </c>
       <c r="D6" t="n">
-        <v>171180.7888543896</v>
+        <v>171180.7888543901</v>
       </c>
       <c r="E6" t="n">
-        <v>-74486.05402255279</v>
+        <v>-74520.79194798897</v>
       </c>
       <c r="F6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593663</v>
       </c>
       <c r="G6" t="n">
-        <v>250926.4077848019</v>
+        <v>250891.6698593663</v>
       </c>
       <c r="H6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593663</v>
       </c>
       <c r="I6" t="n">
-        <v>250926.4077848017</v>
+        <v>250891.6698593661</v>
       </c>
       <c r="J6" t="n">
-        <v>33395.20538752468</v>
+        <v>33360.46746208885</v>
       </c>
       <c r="K6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593663</v>
       </c>
       <c r="L6" t="n">
-        <v>250926.4077848022</v>
+        <v>250891.6698593663</v>
       </c>
       <c r="M6" t="n">
-        <v>165871.3798492903</v>
+        <v>165836.6419238545</v>
       </c>
       <c r="N6" t="n">
-        <v>250926.4077848023</v>
+        <v>250891.6698593664</v>
       </c>
       <c r="O6" t="n">
-        <v>250926.4077848023</v>
+        <v>250891.6698593665</v>
       </c>
       <c r="P6" t="n">
-        <v>250926.4077848021</v>
+        <v>250891.6698593663</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022931</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.54563095404518</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>95.93954112700084</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.48146514877237</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.85778156328863</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.32826741621534</v>
       </c>
       <c r="D5" t="n">
-        <v>332.6248785068118</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>129.2754916494813</v>
+        <v>111.9217783229546</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>227.2326428941322</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.1562795319061</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098578</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.0216880939079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28567,10 +28567,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.352821269285235e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31434,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H7" t="n">
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>232.153703594058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>349.3304751113899</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>451.7125911569009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>225.4828684302374</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,10 +34451,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>359.7678776111906</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033042</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>439.190340064064</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>90.01966967203964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>211.489036137031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>313.1582113770267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88662398579301</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>217.6338436891722</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
